--- a/contrib/marcill1/GiniDAta.xlsx
+++ b/contrib/marcill1/GiniDAta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0de62abf40b7f295/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076AF4DF-1A9C-4628-B656-2E75B30D10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{076AF4DF-1A9C-4628-B656-2E75B30D10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945BEFD5-E29B-4F79-9869-88400E2ACFB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" xr2:uid="{4BEF2FAF-74A7-4623-B8E8-3177D9362D3D}"/>
+    <workbookView xWindow="4020" yWindow="2775" windowWidth="17280" windowHeight="10755" xr2:uid="{4BEF2FAF-74A7-4623-B8E8-3177D9362D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Gini</t>
+  </si>
+  <si>
+    <t>PrParty</t>
   </si>
 </sst>
 </file>
@@ -183,6 +186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,484 +489,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27EB5C-E346-4A06-A9A4-9D425FAAB96C}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B59"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
       <c r="B3" s="3">
         <v>0.47399999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
       <c r="B5" s="3">
         <v>0.46500000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
       <c r="B6" s="3">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
       <c r="B8" s="3">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2016</v>
       </c>
       <c r="B9" s="3">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
       <c r="B10" s="3">
         <v>0.46200000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2014</v>
       </c>
       <c r="B11" s="3">
         <v>0.46400000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
       <c r="B14" s="3">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
       <c r="B15" s="3">
         <v>0.46300000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>0.45600000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
       <c r="B17" s="3">
         <v>0.45600000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2008</v>
       </c>
       <c r="B18" s="3">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2007</v>
       </c>
       <c r="B19" s="3">
         <v>0.44400000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2006</v>
       </c>
       <c r="B20" s="3">
         <v>0.45200000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2005</v>
       </c>
       <c r="B21" s="3">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2003</v>
       </c>
       <c r="B23" s="3">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
       <c r="B24" s="3">
         <v>0.443</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2001</v>
       </c>
       <c r="B25" s="3">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>0.442</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="3">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1998</v>
       </c>
       <c r="B28" s="3">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1997</v>
       </c>
       <c r="B29" s="3">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1996</v>
       </c>
       <c r="B30" s="3">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="3">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="3">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="3">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3">
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1991</v>
       </c>
       <c r="B35" s="3">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1990</v>
       </c>
       <c r="B36" s="3">
         <v>0.40600000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1989</v>
       </c>
       <c r="B37" s="3">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1988</v>
       </c>
       <c r="B38" s="3">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1986</v>
       </c>
       <c r="B40" s="3">
         <v>0.39700000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="3">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="3">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1983</v>
       </c>
       <c r="B43" s="3">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1982</v>
       </c>
       <c r="B44" s="3">
         <v>0.38400000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1981</v>
       </c>
       <c r="B45" s="3">
         <v>0.373</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1980</v>
       </c>
       <c r="B46" s="3">
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="3">
         <v>0.36599999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1978</v>
       </c>
       <c r="B48" s="3">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1977</v>
       </c>
       <c r="B49" s="3">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="3">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="3">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="3">
         <v>0.35399999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1973</v>
       </c>
       <c r="B53" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="3">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1970</v>
       </c>
       <c r="B56" s="3">
         <v>0.35699999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1969</v>
       </c>
       <c r="B57" s="3">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1968</v>
       </c>
       <c r="B58" s="3">
         <v>0.35099999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="3">
         <v>0.36199999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/contrib/marcill1/GiniDAta.xlsx
+++ b/contrib/marcill1/GiniDAta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0de62abf40b7f295/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{076AF4DF-1A9C-4628-B656-2E75B30D10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945BEFD5-E29B-4F79-9869-88400E2ACFB0}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{076AF4DF-1A9C-4628-B656-2E75B30D10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BFD03A5-FB75-4EAA-8E6C-9D6426AA904F}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2775" windowWidth="17280" windowHeight="10755" xr2:uid="{4BEF2FAF-74A7-4623-B8E8-3177D9362D3D}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="14760" xr2:uid="{4BEF2FAF-74A7-4623-B8E8-3177D9362D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">2020 </t>
   </si>
   <si>
-    <t xml:space="preserve">2017 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2013 </t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>PrParty</t>
+  </si>
+  <si>
+    <t>DemCong</t>
+  </si>
+  <si>
+    <t>RepCong</t>
+  </si>
+  <si>
+    <t>Trifecta</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27EB5C-E346-4A06-A9A4-9D425FAAB96C}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -497,18 +503,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,8 +533,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
@@ -529,8 +553,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -540,8 +573,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -551,8 +593,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -562,87 +613,159 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B11" s="3">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.45900000000000002</v>
-      </c>
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="3">
         <v>0.46300000000000002</v>
@@ -650,21 +773,39 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2011</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>0.46300000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2009</v>
       </c>
       <c r="B16" s="3">
         <v>0.45600000000000002</v>
@@ -672,175 +813,319 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B17" s="3">
-        <v>0.45600000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="3">
         <v>0.45</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.45200000000000001</v>
-      </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2005</v>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>0.45</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2003</v>
       </c>
       <c r="B22" s="3">
-        <v>0.44700000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="3">
-        <v>0.44500000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B24" s="3">
-        <v>0.443</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2001</v>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>0.44600000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1998</v>
       </c>
       <c r="B27" s="3">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B28" s="3">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B29" s="3">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1996</v>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B30" s="3">
-        <v>0.437</v>
+        <v>0.433</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3">
-        <v>0.433</v>
+        <v>0.436</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3">
         <v>0.436</v>
@@ -848,32 +1133,59 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
-        <v>0.436</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1991</v>
       </c>
       <c r="B34" s="3">
-        <v>0.41199999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B35" s="3">
         <v>0.40600000000000003</v>
@@ -881,76 +1193,139 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B36" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B37" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1988</v>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B38" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1986</v>
       </c>
       <c r="B39" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1986</v>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B40" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>12</v>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1983</v>
       </c>
       <c r="B42" s="3">
         <v>0.38900000000000001</v>
@@ -958,85 +1333,157 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B43" s="3">
-        <v>0.38900000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B44" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B45" s="3">
-        <v>0.373</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>1980</v>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B46" s="3">
-        <v>0.36699999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>11</v>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1978</v>
       </c>
       <c r="B47" s="3">
-        <v>0.36599999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B48" s="3">
-        <v>0.36299999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>1977</v>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B49" s="3">
-        <v>0.36199999999999999</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -1046,104 +1493,174 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3">
         <v>0.35899999999999999</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1973</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>1969</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>1968</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0.35099999999999998</v>
-      </c>
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
